--- a/Hojas de Ruta/Transmisiones/Acople Flexible/ACOPLE FLEXIBLE BC41-5-50N/OT 24867.xlsx
+++ b/Hojas de Ruta/Transmisiones/Acople Flexible/ACOPLE FLEXIBLE BC41-5-50N/OT 24867.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Item</t>
   </si>
@@ -67,6 +67,15 @@
   <si>
     <t>Lavado Exterior
 Pintura y Secado</t>
+  </si>
+  <si>
+    <t>Limpieza repuestos Nuevos</t>
+  </si>
+  <si>
+    <t>Embalar Repuestos en desuso</t>
+  </si>
+  <si>
+    <t>Cargos</t>
   </si>
 </sst>
 </file>
@@ -82,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -111,6 +126,14 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,22 +439,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,14 +468,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,11 +491,17 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="F2" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="8">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -481,11 +514,15 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F3" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -498,11 +535,15 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="F4" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,11 +556,15 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F5" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -532,11 +577,15 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F6" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -549,11 +598,15 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="F7" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -566,11 +619,15 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="F8" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -583,12 +640,17 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="F9" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -601,11 +663,15 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="E10" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F10" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -618,12 +684,51 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="F11" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <f>SUM(E2:E13)</f>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="F14" s="6">
+        <f>SUM(F2:F13)</f>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(G2:G13)</f>
+        <v>0.375</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G9:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>